--- a/tests/Utilits/loadDataExcel/handlerRow/testDataReestrOut_TAB2.xlsx
+++ b/tests/Utilits/loadDataExcel/handlerRow/testDataReestrOut_TAB2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\Pdv_UZ\tests\Utilits\loadDataExcel\handlerRow\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="19200" windowHeight="10215"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="19200" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="170">
   <si>
     <t>A1_10</t>
   </si>
@@ -473,6 +478,57 @@
   </si>
   <si>
     <t>вп</t>
+  </si>
+  <si>
+    <t>Караванова Катерина Валеріївна</t>
+  </si>
+  <si>
+    <t>ТВЕРСЬКА, буд. 5, М.КИЇВ обл., 03150</t>
+  </si>
+  <si>
+    <t>2701610462</t>
+  </si>
+  <si>
+    <t>ПАТ "УКРЗАЛІЗНИЦЯ"/ПУБЛІЧНЕ АКЦІОНЕРНЕ ТОВАРИСТВО "УКРАЇНСЬКА ЗАЛІЗНИЦЯ" 586</t>
+  </si>
+  <si>
+    <t>Внукова Світліна Миколаївна</t>
+  </si>
+  <si>
+    <t>2268607640</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>148//586</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "ТРАНС СИСТЕМ ЛОДЖИСТІКС"</t>
+  </si>
+  <si>
+    <t>379030605633</t>
+  </si>
+  <si>
+    <t>89//586</t>
+  </si>
+  <si>
+    <t>зміна ціни послуг</t>
   </si>
 </sst>
 </file>
@@ -858,7 +914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DR9"/>
+  <dimension ref="A1:DR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB1" workbookViewId="0">
-      <selection activeCell="DC9" sqref="DC9:DH9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DC10" sqref="DC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3135,6 +3191,215 @@
         <v>141</v>
       </c>
     </row>
+    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+      <c r="B10" s="63">
+        <v>0</v>
+      </c>
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>0</v>
+      </c>
+      <c r="J10" s="63">
+        <v>0</v>
+      </c>
+      <c r="K10" s="63">
+        <v>0</v>
+      </c>
+      <c r="L10" s="63">
+        <v>634514.89</v>
+      </c>
+      <c r="M10" s="63">
+        <v>528762.4</v>
+      </c>
+      <c r="N10" s="63">
+        <v>0</v>
+      </c>
+      <c r="O10" s="63">
+        <v>0</v>
+      </c>
+      <c r="P10" s="63">
+        <v>105752.49</v>
+      </c>
+      <c r="Q10" s="63">
+        <v>0</v>
+      </c>
+      <c r="R10" s="63">
+        <v>0</v>
+      </c>
+      <c r="T10" s="63">
+        <v>0</v>
+      </c>
+      <c r="V10" s="63">
+        <v>783360278.63999999</v>
+      </c>
+      <c r="W10" s="63">
+        <v>0</v>
+      </c>
+      <c r="X10" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="63">
+        <v>2123266185.78</v>
+      </c>
+      <c r="AA10" s="63">
+        <v>475687992.42000002</v>
+      </c>
+      <c r="AB10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="63">
+        <v>95137597.799999997</v>
+      </c>
+      <c r="AD10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="63">
+        <v>769080316.91999996</v>
+      </c>
+      <c r="AG10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="63">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="63">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="BL10" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM10" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN10" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO10" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="BP10" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ10" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR10" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS10" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT10" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH10" s="64">
+        <v>42997</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>160</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>134</v>
+      </c>
+      <c r="CL10" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>161</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>162</v>
+      </c>
+      <c r="CP10" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="CR10" s="63">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="63">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="64">
+        <v>42949</v>
+      </c>
+      <c r="CW10" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>165</v>
+      </c>
+      <c r="CZ10" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="DA10" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC10" s="63">
+        <v>-2.91038304567337E-11</v>
+      </c>
+      <c r="DD10" s="63">
+        <v>-148503.67000000001</v>
+      </c>
+      <c r="DF10" s="63">
+        <v>-29700.73</v>
+      </c>
+      <c r="DG10" s="63">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="63">
+        <v>178204.4</v>
+      </c>
+      <c r="DI10" s="64">
+        <v>42948</v>
+      </c>
+      <c r="DK10" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="DL10" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>139</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>131</v>
+      </c>
+      <c r="DR10" s="68" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
